--- a/app/admin/templates/pricing_update.xlsx
+++ b/app/admin/templates/pricing_update.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\carboni\projects\shupe-carboni\backend\app\admin\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07E665AD-8CB3-4D09-8BFF-AE6C70A8AFE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A75B7A2-3602-4E95-B0AB-8005C2C653E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27075" yWindow="1545" windowWidth="23460" windowHeight="18495" xr2:uid="{2D8CD0F5-9AAE-4DF6-8F32-0FBC2C2C8DA0}"/>
+    <workbookView xWindow="25455" yWindow="1305" windowWidth="23415" windowHeight="18495" xr2:uid="{2D8CD0F5-9AAE-4DF6-8F32-0FBC2C2C8DA0}"/>
   </bookViews>
   <sheets>
     <sheet name="Customer Pricing" sheetId="1" r:id="rId1"/>
     <sheet name="Customer Price Category" sheetId="2" r:id="rId2"/>
     <sheet name="Product Category Discounts" sheetId="3" r:id="rId3"/>
+    <sheet name="Product Discounts" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
   <si>
     <t>Part Number</t>
   </si>
@@ -56,6 +57,9 @@
   </si>
   <si>
     <t>Pricing Category</t>
+  </si>
+  <si>
+    <t>Category Rank</t>
   </si>
 </sst>
 </file>
@@ -448,7 +452,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -478,7 +482,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E81CF49-B215-416F-84FA-7A1F5280F76C}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -498,20 +504,54 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BEDB468-A81F-4AD9-AC6E-E372ABDBEB2A}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="16.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{884F3EF4-BED2-4BB2-9417-4C69A38EEDEE}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>4</v>

--- a/app/admin/templates/pricing_update.xlsx
+++ b/app/admin/templates/pricing_update.xlsx
@@ -5,18 +5,17 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\carboni\projects\shupe-carboni\backend\app\admin\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Joe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A75B7A2-3602-4E95-B0AB-8005C2C653E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{218D3330-0030-4F99-9BBE-C5089343B3DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25455" yWindow="1305" windowWidth="23415" windowHeight="18495" xr2:uid="{2D8CD0F5-9AAE-4DF6-8F32-0FBC2C2C8DA0}"/>
+    <workbookView xWindow="21495" yWindow="4470" windowWidth="23415" windowHeight="16410" activeTab="2" xr2:uid="{2D8CD0F5-9AAE-4DF6-8F32-0FBC2C2C8DA0}"/>
   </bookViews>
   <sheets>
     <sheet name="Customer Pricing" sheetId="1" r:id="rId1"/>
-    <sheet name="Customer Price Category" sheetId="2" r:id="rId2"/>
-    <sheet name="Product Category Discounts" sheetId="3" r:id="rId3"/>
-    <sheet name="Product Discounts" sheetId="4" r:id="rId4"/>
+    <sheet name="Product Category Discounts" sheetId="3" r:id="rId2"/>
+    <sheet name="Product Discounts" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,15 +38,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
   <si>
     <t>Part Number</t>
   </si>
   <si>
     <t>Price</t>
-  </si>
-  <si>
-    <t>Categories</t>
   </si>
   <si>
     <t>Product Category</t>
@@ -66,7 +62,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -81,6 +80,12 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFCE9178"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -112,9 +117,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -451,8 +463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A645839A-28AE-4162-8F4B-66F390DCEEDE}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -466,7 +478,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -479,35 +491,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E81CF49-B215-416F-84FA-7A1F5280F76C}">
-  <dimension ref="A1:A2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BEDB468-A81F-4AD9-AC6E-E372ABDBEB2A}">
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BEDB468-A81F-4AD9-AC6E-E372ABDBEB2A}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -518,46 +506,160 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="2"/>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C3" s="2"/>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C4" s="2"/>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C5" s="2"/>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C6" s="2"/>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C7" s="2"/>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C8" s="2"/>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C9" s="2"/>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C10" s="2"/>
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C11" s="2"/>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C12" s="2"/>
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C13" s="2"/>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C14" s="2"/>
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C15" s="2"/>
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C16" s="2"/>
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C17" s="2"/>
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C18" s="2"/>
+      <c r="D18" s="3"/>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C19" s="2"/>
+      <c r="D19" s="3"/>
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C20" s="2"/>
+      <c r="D20" s="3"/>
+    </row>
+    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C21" s="2"/>
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C22" s="2"/>
+      <c r="D22" s="3"/>
+    </row>
+    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C23" s="2"/>
+    </row>
+    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C24" s="2"/>
+    </row>
+    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C25" s="2"/>
+    </row>
+    <row r="26" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C26" s="2"/>
+    </row>
+    <row r="27" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C27" s="2"/>
+    </row>
+    <row r="28" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C28" s="2"/>
+    </row>
+    <row r="29" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C29" s="2"/>
+    </row>
+    <row r="30" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C30" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{884F3EF4-BED2-4BB2-9417-4C69A38EEDEE}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B3:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
